--- a/jour14.xlsx
+++ b/jour14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,115 @@
     <t>Points exté</t>
   </si>
   <si>
+    <t>['Wooh', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Coco', 'Girotto', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Aguilar', 'Pele']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['H.Diallo', 'Sanson']</t>
-  </si>
-  <si>
-    <t>['Blas', 'Guessand']</t>
-  </si>
-  <si>
-    <t>['Jeanvier', 'Autret', 'Danois']</t>
-  </si>
-  <si>
-    <t>["N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Harit', 'Clauss']</t>
-  </si>
-  <si>
-    <t>['Ripart', 'Conte', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Massolin', 'Massolin']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Khazri', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Traore', 'Gouiri']</t>
+    <t>['Flips']</t>
+  </si>
+  <si>
+    <t>['Le_Fee', 'Matsima', 'Matsima']</t>
+  </si>
+  <si>
+    <t>['Martin', 'Andre', 'Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Delaine', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Kabore']</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Troyes</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Nantes</t>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Toulouse</t>
   </si>
   <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Cabella', 'Andre', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'Aboukhlal']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Bamba', 'Mendy']</t>
-  </si>
-  <si>
-    <t>['Serhuis', 'Ito', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Laborde', 'Attal']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Jakobs']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron', 'Tavares', 'Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Messi']</t>
+    <t>['Medina', 'Pereira', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Del_Castillo', 'Mounie', 'Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Brahimi', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Nordin', 'Sainte-Luce', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Autret', 'Da_Costa']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Bayo']</t>
+  </si>
+  <si>
+    <t>['Desler']</t>
+  </si>
+  <si>
+    <t>['Capelle', 'Sima', 'Mendy', 'Camara']</t>
   </si>
 </sst>
 </file>
@@ -546,28 +543,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -575,28 +572,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -604,25 +601,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -633,28 +630,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -677,10 +674,10 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -691,28 +688,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -723,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -749,28 +746,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -778,28 +775,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -810,25 +807,25 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/jour14.xlsx
+++ b/jour14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,49 +40,85 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Wooh', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Coco', 'Girotto', 'Girotto']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Aguilar', 'Pele']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Flips']</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Matsima', 'Matsima']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Andre', 'Gudmundsson']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Kabore']</t>
+    <t>['Porozo']</t>
+  </si>
+  <si>
+    <t>['Henrique', 'Jakobs', 'Sibide']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Traore', 'Majer']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Balerdi', 'Clauss', 'Ounahi']</t>
+  </si>
+  <si>
+    <t>['Guillaume', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Gonzalez', 'Gonzalez']</t>
+  </si>
+  <si>
+    <t>['Tavares', 'Duverne', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Caqueret']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Ruiz']</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Troyes</t>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Lorient</t>
@@ -91,64 +127,37 @@
     <t>Lille</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>['Medina', 'Pereira', 'Medina']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Mounie', 'Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Brahimi', 'Brahimi']</t>
-  </si>
-  <si>
-    <t>['Sakho', 'Nordin', 'Sainte-Luce', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Lipinski', 'Autret', 'Da_Costa']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Bayo']</t>
-  </si>
-  <si>
-    <t>['Desler']</t>
-  </si>
-  <si>
-    <t>['Capelle', 'Sima', 'Mendy', 'Camara']</t>
+    <t>['Wieteska', 'Wieteska', 'Boyer', 'Bayo']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Attal', 'Laborde']</t>
+  </si>
+  <si>
+    <t>['Ganago', 'Simon', 'Blas']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'Mothiba', 'Gameiro']</t>
+  </si>
+  <si>
+    <t>['Medina', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Van_den_Boomen', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Talbi']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Tchato']</t>
   </si>
 </sst>
 </file>
@@ -543,28 +552,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -578,22 +587,22 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -607,22 +616,22 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -630,28 +639,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -659,25 +668,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -688,28 +697,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -717,28 +726,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -749,25 +758,25 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -778,10 +787,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -790,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -807,25 +816,25 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour14.xlsx
+++ b/jour14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Porozo']</t>
-  </si>
-  <si>
-    <t>['Henrique', 'Jakobs', 'Sibide']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Traore', 'Majer']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Clauss', 'Ounahi']</t>
-  </si>
-  <si>
-    <t>['Guillaume', 'Sima']</t>
-  </si>
-  <si>
-    <t>['Gonzalez', 'Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Tavares', 'Duverne', 'Tavares']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Caqueret']</t>
-  </si>
-  <si>
-    <t>['Mendes', 'Ruiz']</t>
+    <t>['Jakobs', 'Ben_Yedder', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Corduan', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Duverne', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Lega', 'Tolisso']</t>
+  </si>
+  <si>
+    <t>['Djiku']</t>
+  </si>
+  <si>
+    <t>['Cajuste']</t>
+  </si>
+  <si>
+    <t>['Cabella']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lille</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>AS Monaco</t>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Angers</t>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>['Wieteska', 'Wieteska', 'Boyer', 'Bayo']</t>
-  </si>
-  <si>
-    <t>['Lipinski', 'Bain']</t>
-  </si>
-  <si>
-    <t>['Attal', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Simon', 'Blas']</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Mothiba', 'Gameiro']</t>
+    <t>['Theate']</t>
+  </si>
+  <si>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Kroupi']</t>
+  </si>
+  <si>
+    <t>['Verrati', 'Ramos']</t>
   </si>
   <si>
     <t>['Medina', 'Medina']</t>
   </si>
   <si>
-    <t>['Van_den_Boomen', 'ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Talbi']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson']</t>
-  </si>
-  <si>
-    <t>['Tchato']</t>
+    <t>['Bryan', 'Beka', 'Bryan']</t>
+  </si>
+  <si>
+    <t>['Germain', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'ChaÃ¯bi', 'Desler', 'Van_den_Boomen', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Bain', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Michelin', 'Gonzalez', 'Diallo']</t>
   </si>
 </sst>
 </file>
@@ -549,36 +543,36 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -587,48 +581,48 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -636,7 +630,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -645,51 +639,51 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,28 +691,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,25 +720,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -752,89 +746,89 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour14.xlsx
+++ b/jour14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Jakobs', 'Ben_Yedder', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Corduan', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Lega', 'Tolisso']</t>
-  </si>
-  <si>
-    <t>['Djiku']</t>
-  </si>
-  <si>
-    <t>['Cajuste']</t>
-  </si>
-  <si>
-    <t>['Cabella']</t>
+    <t>['Ripart', 'Palaversa', 'Porozo']</t>
+  </si>
+  <si>
+    <t>['Bayo', 'Wieteska']</t>
+  </si>
+  <si>
+    <t>['Balerdi']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Le_Goff', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal', 'Ratao', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Kipembe', 'Verrati']</t>
+  </si>
+  <si>
+    <t>['Coco']</t>
+  </si>
+  <si>
+    <t>['Roure']</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>['Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Lepenant']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>['Theate']</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>['Matsima', 'Kroupi']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Ramos']</t>
-  </si>
-  <si>
-    <t>['Medina', 'Medina']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Beka', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Germain', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'ChaÃ¯bi', 'Desler', 'Van_den_Boomen', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Bain', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Michelin', 'Gonzalez', 'Diallo']</t>
+    <t>['Andre', 'David']</t>
+  </si>
+  <si>
+    <t>['Capelle', 'Capelle']</t>
+  </si>
+  <si>
+    <t>['Attal', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Pellenard', 'Jeanvier', 'Danois', 'Merdji']</t>
+  </si>
+  <si>
+    <t>['Wahi', 'Wahi', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Fortes', 'Varane', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Ben_Seguir', 'Henrique', 'Jakobs']</t>
   </si>
 </sst>
 </file>
@@ -543,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -552,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -561,18 +567,18 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -581,65 +587,65 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -648,18 +654,18 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -668,27 +674,27 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -697,51 +703,51 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,77 +761,77 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour14.xlsx
+++ b/jour14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Jakobs', 'Ben_Yedder', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Corduan', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Lega', 'Tolisso']</t>
-  </si>
-  <si>
-    <t>['Djiku']</t>
-  </si>
-  <si>
-    <t>['Cajuste']</t>
-  </si>
-  <si>
-    <t>['Cabella']</t>
+    <t>['Mollet', 'Girotto', 'Ganago', 'Blas']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Sakho', 'Khazri']</t>
+  </si>
+  <si>
+    <t>['Yoro', 'Martin', 'Yoro']</t>
+  </si>
+  <si>
+    <t>['Ponceau', 'Le_Fee', 'Matsima']</t>
+  </si>
+  <si>
+    <t>['Gusto', 'Cherki']</t>
+  </si>
+  <si>
+    <t>['Payet', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Attal', 'Bryan']</t>
+  </si>
+  <si>
+    <t>['Silla', 'Vidal']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'Onaiwu']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>AS Monaco</t>
   </si>
   <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>['Theate']</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>['Matsima', 'Kroupi']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Ramos']</t>
-  </si>
-  <si>
-    <t>['Medina', 'Medina']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Beka', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Germain', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'ChaÃ¯bi', 'Desler', 'Van_den_Boomen', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Bain', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Michelin', 'Gonzalez', 'Diallo']</t>
+    <t>['Boura', 'Fortes', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Dembele']</t>
+  </si>
+  <si>
+    <t>['Pele', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Theate']</t>
+  </si>
+  <si>
+    <t>['Mbappe']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Bellegarde', 'Djiku']</t>
+  </si>
+  <si>
+    <t>['Magnetti', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['Ripart', 'Salmier', 'Balde']</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -552,27 +555,27 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -581,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -590,129 +593,129 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,94 +729,94 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -822,10 +825,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour14.xlsx
+++ b/jour14.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Ripart', 'Palaversa', 'Porozo']</t>
-  </si>
-  <si>
-    <t>['Bayo', 'Wieteska']</t>
-  </si>
-  <si>
-    <t>['Balerdi']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Aboukhlal', 'Ratao', 'ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Kipembe', 'Verrati']</t>
-  </si>
-  <si>
-    <t>['Coco']</t>
-  </si>
-  <si>
-    <t>['Roure']</t>
+    <t>['Chavalerin', 'Salmier', 'Chavalerin', 'Ripart']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Soler', 'Ruiz']</t>
+  </si>
+  <si>
+    <t>['Rongier', 'Payet', 'Harit']</t>
+  </si>
+  <si>
+    <t>['Tagliafico', 'Tolisso']</t>
+  </si>
+  <si>
+    <t>['Danois']</t>
+  </si>
+  <si>
+    <t>['Rajot']</t>
+  </si>
+  <si>
+    <t>['Gomes']</t>
+  </si>
+  <si>
+    <t>['Mounie']</t>
+  </si>
+  <si>
+    <t>['Gradit']</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>OM</t>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>['Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Lepenant']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Andre', 'David']</t>
-  </si>
-  <si>
-    <t>['Capelle', 'Capelle']</t>
-  </si>
-  <si>
-    <t>['Attal', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Pellenard', 'Jeanvier', 'Danois', 'Merdji']</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Wahi', 'Nordin']</t>
-  </si>
-  <si>
-    <t>['Fortes', 'Varane', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Henrique', 'Jakobs']</t>
+    <t>['Wahi', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Desler']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand', 'Djiku']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Henrique']</t>
+  </si>
+  <si>
+    <t>['Blas', 'Castelletto', 'Pallois']</t>
+  </si>
+  <si>
+    <t>['Le_Fee', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Diop', 'Moffi', 'Moffi', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Balogin', 'Moalida']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Mendy', 'Alioui']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,12 +718,12 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>3</v>

--- a/jour14.xlsx
+++ b/jour14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Majer', 'Majer', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Vidal', 'Hamouma', 'Vidal']</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Ganiou', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Kroupi', 'Silva']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Caqueret', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Attal', 'Beka', 'Moffi']</t>
-  </si>
-  <si>
-    <t>['Moalida', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Verrati']</t>
-  </si>
-  <si>
-    <t>['Castelletto', 'Delort']</t>
+    <t>['Kalimuendo', 'Santamaria', 'Assignon', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Lipinski', 'Lipinski']</t>
+  </si>
+  <si>
+    <t>['Tavares', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Fortes']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Henrique', 'Jakobs']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Porozo', 'Chavalerin']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Gusto']</t>
+  </si>
+  <si>
+    <t>['Nordin', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Michelin']</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>['Guessand']</t>
+  </si>
+  <si>
+    <t>['David']</t>
+  </si>
+  <si>
+    <t>['Guillaume']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Djiku', 'Delaine']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Merdji']</t>
-  </si>
-  <si>
-    <t>['Magnetti', 'Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Ugbo', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Guillaume', 'Corduan']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi', 'Van_den_Boomen', 'Onaiwu', 'Aboukhlal']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson', 'Yoro']</t>
+    <t>['Messi', 'Messi']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Rongier']</t>
+  </si>
+  <si>
+    <t>['Djiku', 'Lienard', 'Le_Marchand', 'Perrin']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Silva', 'Laporte']</t>
+  </si>
+  <si>
+    <t>['Laborde', 'Pepe', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Massolin', 'Wieteska']</t>
   </si>
 </sst>
 </file>
@@ -558,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -575,7 +578,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -590,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -604,7 +607,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -616,16 +619,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -633,7 +636,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -645,16 +648,16 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -662,10 +665,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -683,18 +686,18 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,7 +706,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -712,18 +715,18 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -732,27 +735,27 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,21 +767,21 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -793,13 +796,13 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -807,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -819,16 +822,16 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour14.xlsx
+++ b/jour14.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,127 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Kalimuendo', 'Santamaria', 'Assignon', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Lipinski', 'Lipinski', 'Lipinski']</t>
-  </si>
-  <si>
-    <t>['Tavares', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Fortes']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Henrique', 'Jakobs']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Porozo', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Gusto']</t>
-  </si>
-  <si>
-    <t>['Nordin', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Michelin']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Boyer', 'Bayo']</t>
+  </si>
+  <si>
+    <t>['Martin', 'Burlet', 'Yoro']</t>
+  </si>
+  <si>
+    <t>['Attal', 'Pepe']</t>
+  </si>
+  <si>
+    <t>['Pellenard', 'Merdji']</t>
+  </si>
+  <si>
+    <t>['Kroupi', 'Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Neymar']</t>
+  </si>
+  <si>
+    <t>["N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Del_Castillo']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Troyes</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lens</t>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OL</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>['Guessand']</t>
-  </si>
-  <si>
-    <t>['David']</t>
-  </si>
-  <si>
-    <t>['Guillaume']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Messi', 'Messi']</t>
-  </si>
-  <si>
-    <t>['Gigot', 'Rongier']</t>
-  </si>
-  <si>
-    <t>['Djiku', 'Lienard', 'Le_Marchand', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Matsima', 'Silva', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Laborde', 'Pepe', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Massolin', 'Wieteska']</t>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Wooh']</t>
+  </si>
+  <si>
+    <t>['Sanson']</t>
+  </si>
+  <si>
+    <t>['Bailly', 'Rongier']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'ChaÃ¯bi', 'Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Capelle']</t>
+  </si>
+  <si>
+    <t>['Tolisso']</t>
+  </si>
+  <si>
+    <t>['Serhuis']</t>
+  </si>
+  <si>
+    <t>['Nordin']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder', 'Sibide', 'Henrique']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +552,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="K2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>18</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
+      <c r="G7">
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
+      <c r="G11">
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/jour14.xlsx
+++ b/jour14.xlsx
@@ -46,124 +46,124 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Cisse', 'Boyer', 'Bayo']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Burlet', 'Yoro']</t>
-  </si>
-  <si>
-    <t>['Attal', 'Pepe']</t>
-  </si>
-  <si>
-    <t>['Pellenard', 'Merdji']</t>
-  </si>
-  <si>
-    <t>['Kroupi', 'Le_Fee']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Valencia']</t>
-  </si>
-  <si>
-    <t>['Neymar']</t>
-  </si>
-  <si>
-    <t>["N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Del_Castillo']</t>
+    <t>['Laporte', 'Kroupi', 'Laporte', 'Kroupi']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Aboukhlal', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Soler', 'Verrati']</t>
+  </si>
+  <si>
+    <t>['Savanier', 'Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Conte']</t>
+  </si>
+  <si>
+    <t>['Lepenant', 'Tolisso']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Versini']</t>
+  </si>
+  <si>
+    <t>['Zeneli']</t>
+  </si>
+  <si>
+    <t>['Lipinski']</t>
+  </si>
+  <si>
+    <t>['Brahimi']</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>['Martin', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Assignon']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Varane', 'Le_Cardinal']</t>
+  </si>
+  <si>
+    <t>['Diallo']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Wooh']</t>
-  </si>
-  <si>
-    <t>['Sanson']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Rongier']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'ChaÃ¯bi', 'Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Capelle']</t>
-  </si>
-  <si>
-    <t>['Tolisso']</t>
-  </si>
-  <si>
-    <t>['Serhuis']</t>
-  </si>
-  <si>
-    <t>['Nordin']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder', 'Sibide', 'Henrique']</t>
+    <t>['Bamba', 'Alioui', 'Capelle']</t>
+  </si>
+  <si>
+    <t>['Magnetti', 'Tavares', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Pallois', 'Ganago', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Bellegarde', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Embolo', 'Jakobs']</t>
   </si>
 </sst>
 </file>
@@ -561,10 +561,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -576,10 +576,10 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -591,15 +591,15 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -614,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -626,18 +626,18 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -646,10 +646,10 @@
         <v>22</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -658,21 +658,21 @@
         <v>42</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -684,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -693,21 +693,21 @@
         <v>43</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -728,21 +728,21 @@
         <v>44</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -754,7 +754,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -763,21 +763,21 @@
         <v>45</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -786,10 +786,10 @@
         <v>26</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
@@ -798,21 +798,21 @@
         <v>46</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
@@ -833,21 +833,21 @@
         <v>47</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
@@ -868,18 +868,18 @@
         <v>48</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
@@ -906,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
